--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502E08E-0B86-4C5C-AB5E-B0C703AA023D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14D246C-7DC5-4944-B0A2-5069BA15A8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
   </si>
@@ -48,13 +48,16 @@
     <t>1.動態更新側邊攔</t>
   </si>
   <si>
-    <t>1.動態更新主頁面Card</t>
-  </si>
-  <si>
     <t>(當點擊側邊攔Menu時)</t>
   </si>
   <si>
-    <t>2.點擊子項目跳轉到指定的卡片</t>
+    <t>2.動態更新主頁面Card</t>
+  </si>
+  <si>
+    <t>3.主體架構更新</t>
+  </si>
+  <si>
+    <t>1.點擊子項目跳轉到指定的卡片</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,16 +453,21 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H5" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14D246C-7DC5-4944-B0A2-5069BA15A8C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF2A5E-6033-4DC2-B45A-5544FD0413C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>1.點擊子項目跳轉到指定的卡片</t>
+  </si>
+  <si>
+    <t>1.後端基礎架構</t>
+  </si>
+  <si>
+    <t>2.結構化回傳資料</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,6 +477,25 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44339</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\網頁project\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1275E3-AB86-467C-AEF8-9F47E00EE697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>姓名</t>
   </si>
@@ -73,18 +72,61 @@
   </si>
   <si>
     <t>1..結構化回傳資料</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.側邊Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.區域收合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.收合動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.顏色配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.position:fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.區域收合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登入登出介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.降雨分析頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,19 +464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,75 +499,120 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B9" s="2">
         <v>44338</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B14" s="2">
         <v>44339</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H9" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B17" s="2">
         <v>44340</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -534,6 +621,8 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF2A5E-6033-4DC2-B45A-5544FD0413C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1275E3-AB86-467C-AEF8-9F47E00EE697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>2.結構化回傳資料</t>
+  </si>
+  <si>
+    <t>2.點擊子項目跳轉到指定的卡片</t>
+  </si>
+  <si>
+    <t>3.更新水庫和部分圖片</t>
+  </si>
+  <si>
+    <t>1..結構化回傳資料</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,6 +505,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1275E3-AB86-467C-AEF8-9F47E00EE697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E2A6D4-4131-495D-AE4C-144C07EEE529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>姓名</t>
   </si>
@@ -72,7 +72,10 @@
     <t>3.更新水庫和部分圖片</t>
   </si>
   <si>
-    <t>1..結構化回傳資料</t>
+    <t>1.結構化回傳資料</t>
+  </si>
+  <si>
+    <t>2.連接資料庫(水庫列表)</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,6 +532,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\網頁project\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC05852-79BD-44ED-B41E-D3DC223BBD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -71,9 +72,6 @@
     <t>3.更新水庫和部分圖片</t>
   </si>
   <si>
-    <t>1..結構化回傳資料</t>
-  </si>
-  <si>
     <t>王紹丞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,23 +106,29 @@
   <si>
     <t>1.降雨分析頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.結構化回傳資料</t>
+  </si>
+  <si>
+    <t>2.連接資料庫(水庫列表)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -464,19 +468,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,52 +503,52 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>44337</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>44338</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -558,22 +562,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -587,12 +591,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -603,17 +607,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="D19" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="D22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC05852-79BD-44ED-B41E-D3DC223BBD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81850E-9486-4DC3-8398-827032D8CA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>姓名</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>2.連接資料庫(水庫列表)</t>
+  </si>
+  <si>
+    <t>1.修正水庫圖片無法對應問題</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -636,6 +639,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81850E-9486-4DC3-8398-827032D8CA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -115,23 +114,35 @@
   </si>
   <si>
     <t>1.修正水庫圖片無法對應問題</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下載區域圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修正解析度過低的水庫圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -471,19 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +517,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -523,18 +534,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -551,7 +562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -565,22 +576,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -594,12 +605,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -610,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -618,12 +629,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -634,12 +645,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -648,6 +659,22 @@
       </c>
       <c r="D24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44346</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>姓名</t>
   </si>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>2.修正解析度過低的水庫圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增目錄跳轉時資料呈現畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -677,6 +685,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44349</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>1.新增目錄跳轉時資料呈現畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.插入資料功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理者介面(水庫插入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -618,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -629,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -637,12 +649,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -653,12 +665,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -669,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -680,12 +692,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -694,6 +706,20 @@
       </c>
       <c r="D30" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCEFC5-E637-4C99-B055-A29FCD366108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>姓名</t>
   </si>
@@ -146,23 +147,32 @@
   <si>
     <t>1.管理者介面(水庫插入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正php連結javascript回傳後端</t>
+  </si>
+  <si>
+    <t>2.更改global自動識別加載頁面</t>
+  </si>
+  <si>
+    <t>(page_num 決定正在加載的頁面)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -502,19 +512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +547,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -554,18 +564,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -582,7 +592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -596,22 +606,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -625,12 +635,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -641,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -649,12 +659,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -665,12 +675,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -681,7 +691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -692,12 +702,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -708,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -720,6 +730,27 @@
       </c>
       <c r="L32" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44351</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCEFC5-E637-4C99-B055-A29FCD366108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC968DF-B73B-406A-A744-3E568A1639DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>姓名</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>(page_num 決定正在加載的頁面)</t>
+  </si>
+  <si>
+    <t>1.修正title不同 點擊item無法跳轉bug</t>
+  </si>
+  <si>
+    <t>2.登入錯誤不再跳轉(會顯示錯誤文字)</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -753,6 +759,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC968DF-B73B-406A-A744-3E568A1639DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -162,23 +161,35 @@
   </si>
   <si>
     <t>2.登入錯誤不再跳轉(會顯示錯誤文字)</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正插入圖片功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.新增水庫區域用水插入頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -518,19 +529,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +564,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -570,18 +581,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -598,7 +609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -612,22 +623,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -641,12 +652,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -657,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -665,12 +676,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -681,12 +692,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -697,7 +708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -708,12 +719,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -724,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -738,7 +749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -749,17 +760,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -770,9 +781,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44352</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CBD52-FAC0-4CAA-9C43-2DAA76534625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>姓名</t>
   </si>
@@ -173,23 +174,29 @@
   <si>
     <t>2.新增水庫區域用水插入頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.水庫及時水量連接資料庫</t>
+  </si>
+  <si>
+    <t>1.降雨量資料庫串接</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -529,19 +536,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +571,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -581,18 +588,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -609,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -623,22 +630,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -652,12 +659,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -668,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -676,12 +683,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -692,12 +699,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -708,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -719,12 +726,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -735,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -749,7 +756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -760,17 +767,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -781,12 +788,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -797,9 +804,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="D42" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21CBD52-FAC0-4CAA-9C43-2DAA76534625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F2948-E3FA-4E99-904E-52CAE44924B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>姓名</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>1.降雨量資料庫串接</t>
+  </si>
+  <si>
+    <t>1.修復postcode_area city_area分拆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    導致SQL語法失敗</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -823,6 +829,25 @@
         <v>44</v>
       </c>
     </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F2948-E3FA-4E99-904E-52CAE44924B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF71F81-9A15-4FC5-B2AC-C146CD5BB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>姓名</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">    導致SQL語法失敗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  目前可以使用weekly獲得測站每周水量</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -834,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -846,6 +849,22 @@
     <row r="47" spans="1:8">
       <c r="D47" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="D50" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF71F81-9A15-4FC5-B2AC-C146CD5BB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>姓名</t>
   </si>
@@ -189,23 +188,39 @@
   </si>
   <si>
     <t xml:space="preserve">  目前可以使用weekly獲得測站每周水量</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增水庫有效蓄水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增降雨折線圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修正點擊目錄圖案消失問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -545,19 +560,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +595,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -597,18 +612,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -625,7 +640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -639,22 +654,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -668,12 +683,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -684,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -692,12 +707,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -708,12 +723,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -724,7 +739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -735,12 +750,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -751,7 +766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -765,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -776,17 +791,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -797,12 +812,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -813,58 +828,85 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
         <v>44355</v>
       </c>
       <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44358</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="2">
+        <v>44358</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
         <v>44359</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="D50" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44360</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>姓名</t>
   </si>
@@ -203,6 +203,22 @@
   </si>
   <si>
     <t>2.修正點擊目錄圖案消失問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改照片檔名並加了上傳圖片檔名限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.新增降雨插入頁面、用水插入頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.將原用來測試插入表格user改回正確對應表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -909,6 +925,27 @@
         <v>50</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44361</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>3.將原用來測試插入表格user改回正確對應表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增修改頁面(水庫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.update 網址與user網址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -946,6 +958,22 @@
         <v>55</v>
       </c>
     </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87392B9A-23BB-4E26-82B6-00F30999DDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>姓名</t>
   </si>
@@ -232,23 +233,41 @@
   <si>
     <t>2.update 網址與user網址</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.刪除停水預警頁面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    移動到水庫水情頁面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    連接後端</t>
+  </si>
+  <si>
+    <t>2登入頁面註冊功能</t>
+  </si>
+  <si>
+    <t>1.連接後端註冊功能</t>
+  </si>
+  <si>
+    <t>2.連結後端登入功能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -588,19 +607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +642,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -640,18 +659,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -668,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -682,22 +701,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -711,12 +730,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -727,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -735,12 +754,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -751,12 +770,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -767,7 +786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -778,12 +797,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -794,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -808,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -819,17 +838,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -840,12 +859,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -856,12 +875,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -872,12 +891,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -891,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -905,12 +924,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -921,12 +940,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -937,7 +956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -948,17 +967,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -969,9 +988,41 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="D62" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87392B9A-23BB-4E26-82B6-00F30999DDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>姓名</t>
   </si>
@@ -251,23 +250,39 @@
   </si>
   <si>
     <t>2.連結後端登入功能</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改縣市頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.美化停水警示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.將水庫修改頁面改為一次修改兩個table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -607,19 +622,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +657,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -659,18 +674,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -687,7 +702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -701,22 +716,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -730,12 +745,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -746,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -754,12 +769,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -770,12 +785,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -786,7 +801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -797,12 +812,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -813,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -827,7 +842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -838,17 +853,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -859,12 +874,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -875,12 +890,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -891,12 +906,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -910,7 +925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -924,12 +939,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -940,12 +955,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -956,7 +971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -967,17 +982,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -988,12 +1003,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="4:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1015,14 +1030,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="4:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="4:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF8FAF-A5AD-4BDA-8A2F-749E957826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>姓名</t>
   </si>
@@ -266,23 +267,26 @@
   <si>
     <t>3.將水庫修改頁面改為一次修改兩個table</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.登入/註冊串接資料庫 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -622,19 +626,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +661,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -674,18 +678,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -702,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -716,22 +720,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -745,12 +749,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -761,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -769,12 +773,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -785,12 +789,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -801,7 +805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -812,12 +816,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -828,7 +832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -842,7 +846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -853,17 +857,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -874,12 +878,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -890,12 +894,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -906,12 +910,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -925,7 +929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -939,12 +943,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -955,12 +959,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -971,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -982,17 +986,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -1003,12 +1007,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1030,17 +1034,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="D67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1051,14 +1055,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="D71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="D72" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44364</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF8FAF-A5AD-4BDA-8A2F-749E957826BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E759496-D5FB-46FD-BA5B-FC19AD877F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>姓名</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.登入/註冊串接資料庫 </t>
+  </si>
+  <si>
+    <t>2.連接reservoir/postcode的刪除功能</t>
+  </si>
+  <si>
+    <t>1.修改紀錄</t>
   </si>
 </sst>
 </file>
@@ -627,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1075,6 +1081,14 @@
       <c r="D74" t="s">
         <v>69</v>
       </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="D75" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E759496-D5FB-46FD-BA5B-FC19AD877F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630424D5-3E1A-4E0D-A59A-987BA369B423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>姓名</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>1.修改紀錄</t>
+  </si>
+  <si>
+    <t>1.優化限水UI</t>
+  </si>
+  <si>
+    <t>2.修正刪除到不同列的bug</t>
+  </si>
+  <si>
+    <t>3.完成修改紀錄功能</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1090,6 +1099,27 @@
         <v>70</v>
       </c>
     </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630424D5-3E1A-4E0D-A59A-987BA369B423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>姓名</t>
   </si>
@@ -285,23 +284,35 @@
   </si>
   <si>
     <t>3.完成修改紀錄功能</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.降雨的update跟delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修改input size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -641,19 +652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +687,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -693,18 +704,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -721,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -735,22 +746,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -764,12 +775,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -780,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -788,12 +799,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -804,12 +815,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -820,7 +831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -831,12 +842,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -847,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -861,7 +872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -872,17 +883,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -893,12 +904,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -909,12 +920,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -925,12 +936,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -944,7 +955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -958,12 +969,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -974,12 +985,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -1001,17 +1012,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -1022,12 +1033,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1049,17 +1060,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1070,17 +1081,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1094,12 +1105,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1110,14 +1121,30 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44365</v>
+      </c>
+      <c r="D82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>姓名</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>2.修改input size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用水查詢與delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.yp 放過我吧 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1147,6 +1159,22 @@
         <v>77</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837DCDC-A9B3-4EC5-B23B-B1750E30C9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>姓名</t>
   </si>
@@ -308,23 +309,32 @@
   <si>
     <t xml:space="preserve">2.yp 放過我吧 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.優化區塊載入(api chunkload)</t>
+  </si>
+  <si>
+    <t>2.修正降雨測站重複載入bug</t>
+  </si>
+  <si>
+    <t>1.yp 放過我吧 QQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -664,19 +674,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +709,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -716,18 +726,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -744,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -758,22 +768,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -787,12 +797,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -803,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -811,12 +821,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -827,12 +837,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -843,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -854,12 +864,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -870,7 +880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -884,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -895,17 +905,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -916,12 +926,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -932,12 +942,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -948,12 +958,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -967,7 +977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -981,12 +991,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -997,12 +1007,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -1024,17 +1034,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -1045,12 +1055,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1072,17 +1082,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="D67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1093,17 +1103,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="D71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="D72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1117,12 +1127,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="D75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1133,17 +1143,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="D78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="D79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -1154,12 +1164,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="D83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -1170,9 +1180,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="D87" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44370</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="D90" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\web_project\reservoir_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837DCDC-A9B3-4EC5-B23B-B1750E30C9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>姓名</t>
   </si>
@@ -318,23 +317,39 @@
   </si>
   <si>
     <t>1.yp 放過我吧 QQ</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.update按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.下拉式選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.yp放過我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -674,19 +689,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +724,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -726,18 +741,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -754,7 +769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -768,22 +783,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -797,12 +812,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -813,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -821,12 +836,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -837,12 +852,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -853,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -864,12 +879,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -880,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -894,7 +909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -905,17 +920,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -926,12 +941,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -942,12 +957,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -958,12 +973,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -977,7 +992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -991,12 +1006,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1007,12 +1022,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -1034,17 +1049,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -1055,12 +1070,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1082,17 +1097,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1103,17 +1118,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1127,12 +1142,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1143,17 +1158,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -1164,12 +1179,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -1180,12 +1195,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1199,9 +1214,28 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44371</v>
+      </c>
+      <c r="D93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>1.yp放過我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用水插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該結束了吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1250,22 @@
         <v>86</v>
       </c>
     </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:J1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>姓名</t>
   </si>
@@ -344,6 +344,22 @@
   </si>
   <si>
     <t>該結束了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下拉選單值不改變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修改資料時有警示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暑假我來了紹年股神重磅回歸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1261,9 +1277,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44372</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
